--- a/data_v3.xlsx
+++ b/data_v3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>/d/oferta/laptop-lenovo-x260-12-5-intel-core-i5-8-gb-500-gb-gwar-6-m-CID99-IDOT6h4.html</t>
+          <t>/d/oferta/laptop-lenovo-thinkpad-t450-14-hd-i5-5300u-8gb-180-ssd-win10-klasa-a-CID99-IDIdC28.html</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Laptop Lenovo X260 12,5 " Intel Core i5 8 GB / 500 GB Gwar. 6 m.</t>
+          <t>Laptop Lenovo ThinkPad T450 14" HD i5 5300U 8GB 180 SSD Win10 Klasa A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>500 GB</t>
+          <t>180 GB</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1832,76 +1832,76 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>/d/oferta/laptop-lenovo-thinkpad-t450-14-hd-i5-5300u-8gb-180-ssd-win10-klasa-a-CID99-IDIdC28.html</t>
+          <t>/d/oferta/laptop-lenovo-thinkpad-t450-i5-5300u-4gb-250gb-win10-14-CID99-IDObpKh.html</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Laptop Lenovo ThinkPad T450 14" HD i5 5300U 8GB 180 SSD Win10 Klasa A</t>
+          <t>Laptop LENOVO THINKPAD T450 i5-5300U 4GB 250GB WIN10 14''</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>899.00</t>
+          <t>879.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>8 GB</t>
+          <t>4GB</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>180 GB</t>
+          <t>250GB</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1366 x 768</t>
+          <t>1600x900</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>/d/oferta/laptop-lenovo-thinkpad-t450-i5-5300u-4gb-250gb-win10-14-CID99-IDObpKh.html</t>
+          <t>/d/oferta/laptop-lenovo-x240-i5-4gen-ssd-thinkpad-polecamy-gwarancja-1-rok-krako-CID99-IDII2cK.html</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Laptop LENOVO THINKPAD T450 i5-5300U 4GB 250GB WIN10 14''</t>
+          <t>Laptop Lenovo X240 i5-4gen/SSD Thinkpad POLECAMY Gwarancja 1 rok Krakó</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>879.00</t>
+          <t>849.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1911,147 +1911,147 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>250GB</t>
+          <t>128GB</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1600x900</t>
+          <t>1366 x 768</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>/d/oferta/laptop-lenovo-t420i-14-i5-2450m-8gb-120gb-ssd-win10-pro-pl-CID99-IDOCLSq.html</t>
+          <t>/d/oferta/laptop-lenovo-t430-core-i5-4gb-ssd128gb-thinkpad-gwarancja-CID99-IDHZmvX.html</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Laptop Lenovo T420i 14" i5-2450M/8GB/120GB SSD/Win10 Pro PL</t>
+          <t>Laptop Lenovo T430 core i5/4GB/SSD128GB/ Thinkpad - Gwarancja !</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>870.00</t>
+          <t>849.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>8 GB</t>
+          <t>4GB</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>120GB</t>
+          <t>128GB</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1600 x 900</t>
+          <t>1366 x 768</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>/d/oferta/laptop-lenovo-x240-i5-4gen-ssd-thinkpad-polecamy-gwarancja-1-rok-krako-CID99-IDII2cK.html</t>
+          <t>/d/oferta/laptop-lenovo-thinkpad-t460-i5-6300-8gb-120ssd-win-10-fhd-CID99-IDKbELU.html</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Laptop Lenovo X240 i5-4gen/SSD Thinkpad POLECAMY Gwarancja 1 rok Krakó</t>
+          <t>Laptop Lenovo Thinkpad T460 i5-6300 8GB 120SSD WIN 10 FHD</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>849.00</t>
+          <t>824.25</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>4GB</t>
+          <t>8GB</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>128GB</t>
+          <t>120 GB</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1366 x 768</t>
+          <t>1920x1080</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>/d/oferta/laptop-lenovo-t430-core-i5-4gb-ssd128gb-thinkpad-gwarancja-CID99-IDHZmvX.html</t>
+          <t>/d/oferta/thinkpad-t430-i5-1600x900-8gb-120ssd-CID99-IDMR61V.html</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Laptop Lenovo T430 core i5/4GB/SSD128GB/ Thinkpad - Gwarancja !</t>
+          <t>Thinkpad T430 i5 1600x900 8GB 120SSD</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>849.00</t>
+          <t>800.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>4GB</t>
+          <t>8 GB</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>128GB</t>
+          <t>120 GB</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1366 x 768</t>
+          <t>1600 x 900</t>
         </is>
       </c>
     </row>
@@ -2061,22 +2061,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>/d/oferta/laptop-lenovo-thinkpad-t460-i5-6300-8gb-120ssd-win-10-fhd-CID99-IDKbELU.html</t>
+          <t>/d/oferta/laptop-lenovo-thinkpad-l540-i3-4000m-4gb-250gb-15-6-CID99-IDKpOEU.html</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Laptop Lenovo Thinkpad T460 i5-6300 8GB 120SSD WIN 10 FHD</t>
+          <t>Laptop LENOVO THINKPAD L540 i3-4000M 4GB 250GB 15,6''</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>824.25</t>
+          <t>800.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2086,17 +2086,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>8GB</t>
+          <t>4GB</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>120 GB</t>
+          <t>250GB</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1920x1080</t>
+          <t>1366x768</t>
         </is>
       </c>
     </row>
@@ -2106,82 +2106,82 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>/d/oferta/thinkpad-t430-i5-1600x900-8gb-120ssd-CID99-IDMR61V.html</t>
+          <t>/d/oferta/lenovo-thinkpad-t420-full-opcja-stacja-dokujaca-8gb-ram-ssd-128-CID99-IDOFSnt.html</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Thinkpad T430 i5 1600x900 8GB 120SSD</t>
+          <t>Lenovo Thinkpad T420 FULL OPCJA stacja dokująca 8GB RAM SSD 128</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>800.00</t>
+          <t>799.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>8 GB</t>
+          <t>8GB</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>120 GB</t>
+          <t>128GB</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1600 x 900</t>
+          <t>1366 x 768</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>/d/oferta/laptop-lenovo-thinkpad-l540-i3-4000m-4gb-250gb-15-6-CID99-IDKpOEU.html</t>
+          <t>/d/oferta/lenovo-thinkpad-x270-12-5-i5-6300u-8gb-120gb-win10-CID99-IDO1t0A.html</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Laptop LENOVO THINKPAD L540 i3-4000M 4GB 250GB 15,6''</t>
+          <t>LENOVO THINKPAD X270 12,5 I5-6300U 8GB 120GB WIN10</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>800.00</t>
+          <t>790.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>4GB</t>
+          <t>8GB</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>250GB</t>
+          <t>120GB</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2192,26 +2192,26 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>/d/oferta/lenovo-thinkpad-t420-full-opcja-stacja-dokujaca-8gb-ram-ssd-128-CID99-IDOFSnt.html</t>
+          <t>/d/oferta/kultowy-lenovo-thinkpad-t520i-i3-2310m-4gb-250gb-15-6-CID99-IDLue7z.html</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Lenovo Thinkpad T420 FULL OPCJA stacja dokująca 8GB RAM SSD 128</t>
+          <t>KULTOWY LENOVO THINKPAD T520i i3-2310M 4GB 250GB 15,6"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>799.00</t>
+          <t>750.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2221,47 +2221,47 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>8GB</t>
+          <t>4GB</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>128GB</t>
+          <t>250GB</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1366 x 768</t>
+          <t>1366x768</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>/d/oferta/lenovo-thinkpad-x270-12-5-i5-6300u-8gb-120gb-win10-CID99-IDO1t0A.html</t>
+          <t>/d/oferta/laptop-lenovo-thinkpad-l440-celeron-8gb-240ssd-win10-gw6-fv23-CID99-IDOM1vu.html</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>LENOVO THINKPAD X270 12,5 I5-6300U 8GB 120GB WIN10</t>
+          <t>Laptop Lenovo Thinkpad L440 CELERON 8GB 240SSD WIN10 GW6 FV23</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>790.00</t>
+          <t>749.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>120GB</t>
+          <t>240GB</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2282,31 +2282,31 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>/d/oferta/laptop-lenovo-t440p-4gb-ram-500gb-hdd-i5-4300m-win10propl-CID99-IDNci9S.html</t>
+          <t>/d/oferta/laptop-do-nauki-lenovo-thinkpad-t440-i5-4gb-120ssd-win10-gw12-CID99-IDOIhXb.html</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Laptop Lenovo T440p (4GB RAM, 500Gb HDD, i5-4300M, Win10ProPL)</t>
+          <t>Laptop do nauki Lenovo Thinkpad T440 i5 4GB 120SSD WIN10 GW12</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>750.00</t>
+          <t>674.00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2316,177 +2316,177 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>256gb</t>
+          <t>120GB</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1366 x 768</t>
+          <t>1600x900</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>/d/oferta/kultowy-lenovo-thinkpad-t520i-i3-2310m-4gb-250gb-15-6-CID99-IDLue7z.html</t>
+          <t>/d/oferta/lenovo-thinkpad-t420s-i5-2520m-8gb-240gb-win10-gw6-fv23-CID99-IDOLgml.html</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>KULTOWY LENOVO THINKPAD T520i i3-2310M 4GB 250GB 15,6"</t>
+          <t>Lenovo Thinkpad T420S i5-2520M 8GB 240GB WIN10 GW6 FV23</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>750.00</t>
+          <t>599.00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2,50</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>4GB</t>
+          <t>8GB</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>250GB</t>
+          <t>240GB</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1366x768</t>
+          <t>1600x900</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>/d/oferta/laptop-lenovo-l430-14-i5-ssd-hd-1600x900-kamera-do-szkoly-nauki-fv-CID99-IDIOgdR.html</t>
+          <t>/d/oferta/laptop-15-lenovo-thinkpad-t61p-vpro-nvidia-quadro-fx-570m-win7-ssd-CID99-IDAU3v9.html</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Laptop Lenovo L430 14' i5 SSD HD+ 1600x900 Kamera do szkoły nauki FV</t>
+          <t>Laptop 15 Lenovo ThinkPad T61p vPro NVidia Quadro FX 570M WIN7 SSD</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>750.00</t>
+          <t>570.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>4GB</t>
+          <t>1GB</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>120GB</t>
+          <t>320 GB</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1600x900</t>
+          <t>1920x1200</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>/d/oferta/laptop-lenovo-thinkpad-l440-celeron-8gb-240ssd-win10-gw6-fv23-CID99-IDOM1vu.html</t>
+          <t>/d/oferta/laptop-15-lenovo-thinkpad-r500-vpro-ip-ati-hd-hdmi-win-7-10-ssd-CID99-IDyX1SB.html</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Laptop Lenovo Thinkpad L440 CELERON 8GB 240SSD WIN10 GW6 FV23</t>
+          <t>Laptop 15 Lenovo ThinkPad R500 vPro IP ATI HD HDMI Win 7 10 SSD</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>749.00</t>
+          <t>570.00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>8GB</t>
+          <t>2GB</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>240GB</t>
+          <t>250 GB</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1366x768</t>
+          <t>1680x1050</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>/d/oferta/laptop-do-nauki-lenovo-thinkpad-t440-i5-4gb-120ssd-win10-gw12-CID99-IDOIhXb.html</t>
+          <t>/d/oferta/lenovo-thinkpad-x230i-12-5-intel-i3-3120m-2-5ghz-4gb-ram-128gb-ssd-CID99-IDOJVWS.html</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Laptop do nauki Lenovo Thinkpad T440 i5 4GB 120SSD WIN10 GW12</t>
+          <t>Lenovo ThinkPad x230i 12,5" Intel i3 3120M 2,5GHz/4GB RAM/128GB SSD</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>674.00</t>
+          <t>480.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2496,127 +2496,127 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>120GB</t>
+          <t>128GB</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1600x900</t>
+          <t>1366 x 768</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>/d/oferta/lenovo-thinkpad-t420s-i5-2520m-8gb-240gb-win10-gw6-fv23-CID99-IDOLgml.html</t>
+          <t>/d/oferta/laptop-lenovo-t440p-4gb-ram-500gb-hdd-i5-4300m-win10propl-CID99-IDNci9S.html</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Lenovo Thinkpad T420S i5-2520M 8GB 240GB WIN10 GW6 FV23</t>
+          <t>Laptop Lenovo T440p (4GB RAM, 500Gb HDD, i5-4300M, Win10ProPL)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>599.00</t>
+          <t>750.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2,50</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>8GB</t>
+          <t>4GB</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>240GB</t>
+          <t>256gb</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1600x900</t>
+          <t>1366 x 768</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>/d/oferta/laptop-15-lenovo-thinkpad-t61p-vpro-nvidia-quadro-fx-570m-win7-ssd-CID99-IDAU3v9.html</t>
+          <t>/d/oferta/laptop-lenovo-l430-14-i5-ssd-hd-1600x900-kamera-do-szkoly-nauki-fv-CID99-IDIOgdR.html</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Laptop 15 Lenovo ThinkPad T61p vPro NVidia Quadro FX 570M WIN7 SSD</t>
+          <t>Laptop Lenovo L430 14' i5 SSD HD+ 1600x900 Kamera do szkoły nauki FV</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>570.00</t>
+          <t>750.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1GB</t>
+          <t>4GB</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>320 GB</t>
+          <t>120GB</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>1920x1200</t>
+          <t>1600x900</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>/d/oferta/laptop-15-lenovo-thinkpad-r500-vpro-ip-ati-hd-hdmi-win-7-10-ssd-CID99-IDyX1SB.html</t>
+          <t>/d/oferta/laptop-lenovo-thinkpad-r61e-CID99-IDOZy9W.html</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Laptop 15 Lenovo ThinkPad R500 vPro IP ATI HD HDMI Win 7 10 SSD</t>
+          <t>Laptop Lenovo ThinkPad R61e</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>570.00</t>
+          <t>300.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2626,105 +2626,15 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2GB</t>
+          <t>3GB</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>250 GB</t>
+          <t>320GB</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
-        <is>
-          <t>1680x1050</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>125</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>/d/oferta/lenovo-thinkpad-x230i-12-5-intel-i3-3120m-2-5ghz-4gb-ram-128gb-ssd-CID99-IDOJVWS.html</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Lenovo ThinkPad x230i 12,5" Intel i3 3120M 2,5GHz/4GB RAM/128GB SSD</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>480.00</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>4GB</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>128GB</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>1366 x 768</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>129</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>/d/oferta/laptop-lenovo-thinkpad-r61e-CID99-IDOZy9W.html</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Laptop Lenovo ThinkPad R61e</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>300.00</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>3GB</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>320GB</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
         <is>
           <t>1280x800</t>
         </is>
